--- a/data/excel/sku.xlsx
+++ b/data/excel/sku.xlsx
@@ -37,7 +37,7 @@
     <t>customerCode</t>
   </si>
   <si>
-    <t>sohId</t>
+    <t>skuId</t>
   </si>
   <si>
     <t>skuCode</t>
@@ -70,7 +70,7 @@
     <t>EA</t>
   </si>
   <si>
-    <t>a</t>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -1038,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
@@ -1131,40 +1131,109 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3">
+        <v>109455</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>1244835</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>33334</v>
+      </c>
+      <c r="I3">
+        <v>33334</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>12135421</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>109455</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1244835</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>33334</v>
+      </c>
+      <c r="I4">
+        <v>33334</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>12135421</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5">
+        <v>100200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>109455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>1244835</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>33334</v>
+      </c>
+      <c r="I5">
+        <v>33334</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>12135421</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
